--- a/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1150727221500138</v>
+        <v>0.113937667208058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9978978938821874</v>
+        <v>0.9979186286479335</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2149262889865471</v>
+        <v>0.3150211787849941</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9841204627990341</v>
+        <v>0.9767250876977569</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.113937667208058</v>
+        <v>0.1081156414132303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9979186286479335</v>
+        <v>0.9980249832714507</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3150211787849941</v>
+        <v>0.2391903014476199</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9767250876977569</v>
+        <v>0.9823277491652709</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1081156414132303</v>
+        <v>0.1058112132799173</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980249832714507</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9980670797160867</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2321132172107814</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>
@@ -480,12 +488,15 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2391903014476199</v>
+        <v>0.2229918473948952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9823277491652709</v>
-      </c>
-      <c r="D3" t="inlineStr">
+        <v>0.9835245499612149</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3651187035608621</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
         </is>

--- a/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1058112132799173</v>
+        <v>0.1068557662344095</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980670797160867</v>
+        <v>0.9980479982073243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2321132172107814</v>
+        <v>0.2407779237252792</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>
@@ -488,17 +507,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2229918473948952</v>
+        <v>0.3162511885970278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9835245499612149</v>
+        <v>0.9766342100919515</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3651187035608621</v>
+        <v>0.4312949900126981</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>multiple</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MultiOutputRegressor(estimator=GridSearchCV(cv=5,
+                                            estimator=Pipeline(steps=[('model',
+                                                                       AdaBoostRegressor())]),
+                                            param_grid={'model__learning_rate': [0.1,
+                                                                                 0.5,
+                                                                                 1.0],
+                                                        'model__n_estimators': [50,
+                                                                                100,
+                                                                                150]},
+                                            scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
     </row>

--- a/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1068557662344095</v>
+        <v>0.1048784994476929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980479982073243</v>
+        <v>0.9980841181889433</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2407779237252792</v>
+        <v>0.2374218334876481</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -499,6 +509,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>0.2668650318499809</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.998</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -507,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3162511885970278</v>
+        <v>0.2529092640451192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9766342100919515</v>
+        <v>0.9813141422307591</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4312949900126981</v>
+        <v>0.3935443691105401</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -534,6 +550,12 @@
                                             scoring='neg_mean_squared_error'))</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>0.2668650318499809</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1048784994476929</v>
+        <v>0.1040239321027624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980841181889433</v>
+        <v>0.9980997291105439</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2374218334876481</v>
+        <v>0.2362778051925419</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,14 +506,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2668650318499809</v>
+        <v>0.3030967221833028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.998</v>
+        <v>0.9129999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2529092640451192</v>
+        <v>0.2740834556001016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9813141422307591</v>
+        <v>0.9797497158216717</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3935443691105401</v>
+        <v>0.4007600624608589</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,14 +547,14 @@
                                                         'model__n_estimators': [50,
                                                                                 100,
                                                                                 150]},
-                                            scoring='neg_mean_squared_error'))</t>
+                                            scoring='r2'))</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.2668650318499809</v>
+        <v>0.3030967221833028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.998</v>
+        <v>0.9129999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
+++ b/predictions/multiple/AdaBoostRegressor/Neuropatías.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1040239321027624</v>
+        <v>0.1178792975459519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9980997291105439</v>
+        <v>0.9978466243962513</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2362778051925419</v>
+        <v>0.2488675586823569</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.3030967221833028</v>
+        <v>0.2675185060000028</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9129999999999999</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="3">
@@ -523,13 +523,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2740834556001016</v>
+        <v>0.2448419781721476</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9797497158216717</v>
+        <v>0.9819101826999579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4007600624608589</v>
+        <v>0.3809880346727105</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3030967221833028</v>
+        <v>0.2675185060000028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9129999999999999</v>
+        <v>0.987</v>
       </c>
     </row>
   </sheetData>
